--- a/Programacion de la Ejecucion de Proyectos/Proyectos Plan Priorizados 2020.xlsx
+++ b/Programacion de la Ejecucion de Proyectos/Proyectos Plan Priorizados 2020.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepositorioORFEI\Gestion-ORFEI\Programacion de la Ejecucion de Proyectos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D03EC0-C738-484B-A4BE-21870632D936}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D315452-3D44-4400-BB8A-953D562F8B3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{0E58333A-8368-43DE-A68D-4552E7BA821D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>MEJORAMIENTO Y AMPLIACION DEL SERVICIO DE AGUA PARA RIEGO MEDIANTE REPRESAMIENTO EN LAS COMUNIDADES PUCA PUCA, PALMIRA, CCOCHUA, CURAHUASI, ASMAYACU, PISONAYPATA, TRANCAPATA  Y BACAS EN EL DISTRITO DE CURAHUASI PROVINCIA DE ABANCAY, DEPARTAMENTO DE APURIMAC</t>
   </si>
@@ -128,6 +131,27 @@
   </si>
   <si>
     <t>Centro poblado huascatay, distrito pacobamba, prov. Andahuaylas. Estimado 80 ha.De riego.</t>
+  </si>
+  <si>
+    <t>Monto Programado</t>
+  </si>
+  <si>
+    <t>Agosto</t>
+  </si>
+  <si>
+    <t>Setiembre</t>
+  </si>
+  <si>
+    <t>Octubre</t>
+  </si>
+  <si>
+    <t>Noviembre</t>
+  </si>
+  <si>
+    <t>Diciembre</t>
+  </si>
+  <si>
+    <t>Programación 2020</t>
   </si>
 </sst>
 </file>
@@ -135,9 +159,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +191,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -182,7 +212,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -205,21 +235,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -233,11 +286,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -255,6 +323,223 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="RES X FUN"/>
+      <sheetName val="F. PRODUCCION"/>
+      <sheetName val="F. RIEGO"/>
+      <sheetName val="F. SALUD"/>
+      <sheetName val="F. EDU"/>
+      <sheetName val="F. AMB"/>
+      <sheetName val="F. TRANSP"/>
+      <sheetName val="ADMINIS"/>
+      <sheetName val="F. SOCIAL"/>
+      <sheetName val="IOARR"/>
+      <sheetName val="RECON. DEUDA"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="24">
+          <cell r="G24">
+            <v>58305</v>
+          </cell>
+          <cell r="H24">
+            <v>24905</v>
+          </cell>
+          <cell r="I24">
+            <v>25400</v>
+          </cell>
+          <cell r="J24">
+            <v>8000</v>
+          </cell>
+          <cell r="K24">
+            <v>0</v>
+          </cell>
+          <cell r="L24">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="G52">
+            <v>35975</v>
+          </cell>
+          <cell r="H52">
+            <v>0</v>
+          </cell>
+          <cell r="I52">
+            <v>5605</v>
+          </cell>
+          <cell r="J52">
+            <v>10465</v>
+          </cell>
+          <cell r="K52">
+            <v>15000</v>
+          </cell>
+          <cell r="L52">
+            <v>4905</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="G75">
+            <v>29810</v>
+          </cell>
+          <cell r="H75">
+            <v>9000</v>
+          </cell>
+          <cell r="I75">
+            <v>9905</v>
+          </cell>
+          <cell r="J75">
+            <v>6000</v>
+          </cell>
+          <cell r="K75">
+            <v>4905</v>
+          </cell>
+          <cell r="L75">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="24">
+          <cell r="G24">
+            <v>49525</v>
+          </cell>
+          <cell r="H24">
+            <v>40765</v>
+          </cell>
+          <cell r="I24">
+            <v>8760</v>
+          </cell>
+          <cell r="J24">
+            <v>0</v>
+          </cell>
+          <cell r="K24">
+            <v>0</v>
+          </cell>
+          <cell r="L24">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="G49">
+            <v>75965</v>
+          </cell>
+          <cell r="H49">
+            <v>20500</v>
+          </cell>
+          <cell r="I49">
+            <v>46745</v>
+          </cell>
+          <cell r="J49">
+            <v>4360</v>
+          </cell>
+          <cell r="K49">
+            <v>4360</v>
+          </cell>
+          <cell r="L49">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="G70">
+            <v>57055</v>
+          </cell>
+          <cell r="H70">
+            <v>4000</v>
+          </cell>
+          <cell r="I70">
+            <v>31840</v>
+          </cell>
+          <cell r="J70">
+            <v>11405</v>
+          </cell>
+          <cell r="K70">
+            <v>4905</v>
+          </cell>
+          <cell r="L70">
+            <v>4905</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="26">
+          <cell r="G26">
+            <v>29710</v>
+          </cell>
+          <cell r="H26">
+            <v>24805</v>
+          </cell>
+          <cell r="I26">
+            <v>4905</v>
+          </cell>
+          <cell r="J26">
+            <v>0</v>
+          </cell>
+          <cell r="K26">
+            <v>0</v>
+          </cell>
+          <cell r="L26">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="G52">
+            <v>56355</v>
+          </cell>
+          <cell r="H52">
+            <v>6500</v>
+          </cell>
+          <cell r="I52">
+            <v>21740</v>
+          </cell>
+          <cell r="J52">
+            <v>10305</v>
+          </cell>
+          <cell r="K52">
+            <v>12905</v>
+          </cell>
+          <cell r="L52">
+            <v>4905</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5">
+        <row r="25">
+          <cell r="G25">
+            <v>53425</v>
+          </cell>
+          <cell r="H25">
+            <v>10305</v>
+          </cell>
+          <cell r="I25">
+            <v>23405</v>
+          </cell>
+          <cell r="J25">
+            <v>9905</v>
+          </cell>
+          <cell r="K25">
+            <v>4905</v>
+          </cell>
+          <cell r="L25">
+            <v>4905</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -557,270 +842,539 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A3:H12"/>
+  <dimension ref="A2:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="97.5546875" customWidth="1"/>
-    <col min="3" max="4" width="15.33203125" customWidth="1"/>
-    <col min="7" max="7" width="23.6640625" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" customWidth="1"/>
+    <col min="3" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.6640625" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
     </row>
-    <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:14" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>111375000</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
+        <f>'[1]F. RIEGO'!$G$24</f>
+        <v>58305</v>
+      </c>
+      <c r="E4" s="4">
+        <f>'[1]F. RIEGO'!H24</f>
+        <v>24905</v>
+      </c>
+      <c r="F4" s="4">
+        <f>'[1]F. RIEGO'!I24</f>
+        <v>25400</v>
+      </c>
+      <c r="G4" s="4">
+        <f>'[1]F. RIEGO'!J24</f>
+        <v>8000</v>
+      </c>
+      <c r="H4" s="4">
+        <f>'[1]F. RIEGO'!K24</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f>'[1]F. RIEGO'!L24</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
         <v>0.3</v>
       </c>
-      <c r="E4" s="9">
+      <c r="K4" s="8">
         <v>44044</v>
       </c>
-      <c r="F4" s="9">
+      <c r="L4" s="8">
         <v>44165</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="M4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="N4" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
+      <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>8264250</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
+        <f>'[1]F. RIEGO'!$G$52</f>
+        <v>35975</v>
+      </c>
+      <c r="E5" s="4">
+        <f>'[1]F. RIEGO'!H52</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <f>'[1]F. RIEGO'!I52</f>
+        <v>5605</v>
+      </c>
+      <c r="G5" s="4">
+        <f>'[1]F. RIEGO'!J52</f>
+        <v>10465</v>
+      </c>
+      <c r="H5" s="4">
+        <f>'[1]F. RIEGO'!K52</f>
+        <v>15000</v>
+      </c>
+      <c r="I5" s="4">
+        <f>'[1]F. RIEGO'!L52</f>
+        <v>4905</v>
+      </c>
+      <c r="J5" s="5">
         <v>0.2</v>
       </c>
-      <c r="E5" s="9">
+      <c r="K5" s="8">
         <v>44044</v>
       </c>
-      <c r="F5" s="9">
+      <c r="L5" s="8">
         <v>44195</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="M5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="N5" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="9"/>
+      <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>3030225</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
+        <f>'[1]F. RIEGO'!$G$75</f>
+        <v>29810</v>
+      </c>
+      <c r="E6" s="4">
+        <f>'[1]F. RIEGO'!H75</f>
+        <v>9000</v>
+      </c>
+      <c r="F6" s="4">
+        <f>'[1]F. RIEGO'!I75</f>
+        <v>9905</v>
+      </c>
+      <c r="G6" s="4">
+        <f>'[1]F. RIEGO'!J75</f>
+        <v>6000</v>
+      </c>
+      <c r="H6" s="4">
+        <f>'[1]F. RIEGO'!K75</f>
+        <v>4905</v>
+      </c>
+      <c r="I6" s="4">
+        <f>'[1]F. RIEGO'!L75</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
         <v>0.17</v>
       </c>
-      <c r="E6" s="9">
+      <c r="K6" s="8">
         <v>44044</v>
       </c>
-      <c r="F6" s="9">
+      <c r="L6" s="8">
         <v>44195</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="M6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="N6" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>32545000</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="4">
+        <f>'[1]F. SALUD'!$G$24</f>
+        <v>49525</v>
+      </c>
+      <c r="E7" s="4">
+        <f>'[1]F. SALUD'!H24</f>
+        <v>40765</v>
+      </c>
+      <c r="F7" s="4">
+        <f>'[1]F. SALUD'!I24</f>
+        <v>8760</v>
+      </c>
+      <c r="G7" s="4">
+        <f>'[1]F. SALUD'!J24</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <f>'[1]F. SALUD'!K24</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <f>'[1]F. SALUD'!L24</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
         <v>0.6</v>
       </c>
-      <c r="E7" s="9">
+      <c r="K7" s="8">
         <v>44012</v>
       </c>
-      <c r="F7" s="9">
+      <c r="L7" s="8">
         <v>44135</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="M7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="N7" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="1:14" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>30545000</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="4">
+        <f>'[1]F. SALUD'!$G$49</f>
+        <v>75965</v>
+      </c>
+      <c r="E8" s="4">
+        <f>'[1]F. SALUD'!H49</f>
+        <v>20500</v>
+      </c>
+      <c r="F8" s="4">
+        <f>'[1]F. SALUD'!I49</f>
+        <v>46745</v>
+      </c>
+      <c r="G8" s="4">
+        <f>'[1]F. SALUD'!J49</f>
+        <v>4360</v>
+      </c>
+      <c r="H8" s="4">
+        <f>'[1]F. SALUD'!K49</f>
+        <v>4360</v>
+      </c>
+      <c r="I8" s="4">
+        <f>'[1]F. SALUD'!L49</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
         <v>0.6</v>
       </c>
-      <c r="E8" s="9">
+      <c r="K8" s="8">
         <v>44025</v>
       </c>
-      <c r="F8" s="9">
+      <c r="L8" s="8">
         <v>44135</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="M8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="N8" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="1:14" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>14051640.1</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="4">
+        <f>'[1]F. SALUD'!$G$70</f>
+        <v>57055</v>
+      </c>
+      <c r="E9" s="4">
+        <f>'[1]F. SALUD'!H70</f>
+        <v>4000</v>
+      </c>
+      <c r="F9" s="4">
+        <f>'[1]F. SALUD'!I70</f>
+        <v>31840</v>
+      </c>
+      <c r="G9" s="4">
+        <f>'[1]F. SALUD'!J70</f>
+        <v>11405</v>
+      </c>
+      <c r="H9" s="4">
+        <f>'[1]F. SALUD'!K70</f>
+        <v>4905</v>
+      </c>
+      <c r="I9" s="4">
+        <f>'[1]F. SALUD'!L70</f>
+        <v>4905</v>
+      </c>
+      <c r="J9" s="5">
         <v>0.6</v>
       </c>
-      <c r="E9" s="9">
+      <c r="K9" s="8">
         <v>44046</v>
       </c>
-      <c r="F9" s="9">
+      <c r="L9" s="8">
         <v>44102</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="N9" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>11595000</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="4">
+        <f>'[1]F. EDU'!$G$26</f>
+        <v>29710</v>
+      </c>
+      <c r="E10" s="4">
+        <f>'[1]F. EDU'!H26</f>
+        <v>24805</v>
+      </c>
+      <c r="F10" s="4">
+        <f>'[1]F. EDU'!I26</f>
+        <v>4905</v>
+      </c>
+      <c r="G10" s="4">
+        <f>'[1]F. EDU'!J26</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <f>'[1]F. EDU'!K26</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <f>'[1]F. EDU'!L26</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
         <v>0.6</v>
       </c>
-      <c r="E10" s="9">
+      <c r="K10" s="8">
         <v>44000</v>
       </c>
-      <c r="F10" s="9">
+      <c r="L10" s="8">
         <v>44074</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="M10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="7"/>
+      <c r="N10" s="6"/>
     </row>
-    <row r="11" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="1:14" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>6870000</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="9">
+      <c r="D11" s="4">
+        <f>'[1]F. EDU'!$G$52</f>
+        <v>56355</v>
+      </c>
+      <c r="E11" s="4">
+        <f>'[1]F. EDU'!H52</f>
+        <v>6500</v>
+      </c>
+      <c r="F11" s="4">
+        <f>'[1]F. EDU'!I52</f>
+        <v>21740</v>
+      </c>
+      <c r="G11" s="4">
+        <f>'[1]F. EDU'!J52</f>
+        <v>10305</v>
+      </c>
+      <c r="H11" s="4">
+        <f>'[1]F. EDU'!K52</f>
+        <v>12905</v>
+      </c>
+      <c r="I11" s="4">
+        <f>'[1]F. EDU'!L52</f>
+        <v>4905</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="8">
         <v>44075</v>
       </c>
-      <c r="F11" s="9">
+      <c r="L11" s="8">
         <v>44165</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="M11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="N11" s="6"/>
     </row>
-    <row r="12" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>21791800</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="4">
+        <f>'[1]F. AMB'!$G$25</f>
+        <v>53425</v>
+      </c>
+      <c r="E12" s="4">
+        <f>'[1]F. AMB'!H25</f>
+        <v>10305</v>
+      </c>
+      <c r="F12" s="4">
+        <f>'[1]F. AMB'!I25</f>
+        <v>23405</v>
+      </c>
+      <c r="G12" s="4">
+        <f>'[1]F. AMB'!J25</f>
+        <v>9905</v>
+      </c>
+      <c r="H12" s="4">
+        <f>'[1]F. AMB'!K25</f>
+        <v>4905</v>
+      </c>
+      <c r="I12" s="4">
+        <f>'[1]F. AMB'!L25</f>
+        <v>4905</v>
+      </c>
+      <c r="J12" s="5">
         <v>0.2</v>
       </c>
-      <c r="E12" s="8">
+      <c r="K12" s="7">
         <v>44044</v>
       </c>
-      <c r="F12" s="9">
+      <c r="L12" s="8">
         <v>44135</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="M12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="N12" s="6" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="12">
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="64" orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/Programacion de la Ejecucion de Proyectos/Proyectos Plan Priorizados 2020.xlsx
+++ b/Programacion de la Ejecucion de Proyectos/Proyectos Plan Priorizados 2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepositorioORFEI\Gestion-ORFEI\Programacion de la Ejecucion de Proyectos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D315452-3D44-4400-BB8A-953D562F8B3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0D4A1F-1440-44AE-875A-2938BBBCA430}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{0E58333A-8368-43DE-A68D-4552E7BA821D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>MEJORAMIENTO Y AMPLIACION DEL SERVICIO DE AGUA PARA RIEGO MEDIANTE REPRESAMIENTO EN LAS COMUNIDADES PUCA PUCA, PALMIRA, CCOCHUA, CURAHUASI, ASMAYACU, PISONAYPATA, TRANCAPATA  Y BACAS EN EL DISTRITO DE CURAHUASI PROVINCIA DE ABANCAY, DEPARTAMENTO DE APURIMAC</t>
   </si>
@@ -152,6 +152,12 @@
   </si>
   <si>
     <t>Programación 2020</t>
+  </si>
+  <si>
+    <t>TRANSPORTES</t>
+  </si>
+  <si>
+    <t>MEJORAMIENTO DE LAS VÍAS LAMBRAMA  PACCAYPATA - COYLLURQUI, COTABAMBAS DE LAS PROVINCIAS DE ABANCAY Y COTABAMBAS DEL  DEPARTAMENTO DE APURIMAC</t>
   </si>
 </sst>
 </file>
@@ -266,7 +272,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -292,20 +298,23 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -532,7 +541,28 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="6">
+        <row r="29">
+          <cell r="G29">
+            <v>84775</v>
+          </cell>
+          <cell r="H29">
+            <v>7405</v>
+          </cell>
+          <cell r="I29">
+            <v>49505</v>
+          </cell>
+          <cell r="J29">
+            <v>12305</v>
+          </cell>
+          <cell r="K29">
+            <v>10655</v>
+          </cell>
+          <cell r="L29">
+            <v>4905</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
@@ -842,10 +872,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:N12"/>
+  <dimension ref="A2:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -864,44 +894,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="10" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
       <c r="E3" s="2" t="s">
         <v>32</v>
       </c>
@@ -920,13 +950,13 @@
       <c r="J3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
     </row>
     <row r="4" spans="1:14" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -976,7 +1006,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1024,7 +1054,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1072,7 +1102,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1122,7 +1152,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
@@ -1170,7 +1200,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
@@ -1218,7 +1248,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1266,7 +1296,7 @@
       <c r="N10" s="6"/>
     </row>
     <row r="11" spans="1:14" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
@@ -1359,13 +1389,52 @@
         <v>19</v>
       </c>
     </row>
+    <row r="13" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="4">
+        <v>18000000</v>
+      </c>
+      <c r="D13" s="6">
+        <f>'[1]F. TRANSP'!$G$29</f>
+        <v>84775</v>
+      </c>
+      <c r="E13" s="6">
+        <f>'[1]F. TRANSP'!H29</f>
+        <v>7405</v>
+      </c>
+      <c r="F13" s="6">
+        <f>'[1]F. TRANSP'!I29</f>
+        <v>49505</v>
+      </c>
+      <c r="G13" s="6">
+        <f>'[1]F. TRANSP'!J29</f>
+        <v>12305</v>
+      </c>
+      <c r="H13" s="6">
+        <f>'[1]F. TRANSP'!K29</f>
+        <v>10655</v>
+      </c>
+      <c r="I13" s="6">
+        <f>'[1]F. TRANSP'!L29</f>
+        <v>4905</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="14">
+        <v>44045</v>
+      </c>
+      <c r="L13" s="14">
+        <v>44165</v>
+      </c>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A11"/>
@@ -1373,9 +1442,14 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="B2:B3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="A2:A3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="64" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="52" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Programacion de la Ejecucion de Proyectos/Proyectos Plan Priorizados 2020.xlsx
+++ b/Programacion de la Ejecucion de Proyectos/Proyectos Plan Priorizados 2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepositorioORFEI\Gestion-ORFEI\Programacion de la Ejecucion de Proyectos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MEL\Documents\RepositorioORFEI\Gestion-ORFEI\Programacion de la Ejecucion de Proyectos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0D4A1F-1440-44AE-875A-2938BBBCA430}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D07DC5A-EB7E-4801-9DD9-061DD48133D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{0E58333A-8368-43DE-A68D-4552E7BA821D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0E58333A-8368-43DE-A68D-4552E7BA821D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -298,6 +298,15 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -306,15 +315,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -875,7 +875,7 @@
   <dimension ref="A2:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -894,44 +894,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="9" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
       <c r="E3" s="2" t="s">
         <v>32</v>
       </c>
@@ -950,13 +950,13 @@
       <c r="J3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
     </row>
     <row r="4" spans="1:14" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1006,7 +1006,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1054,7 +1054,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1102,7 +1102,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1152,7 +1152,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
@@ -1200,7 +1200,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
@@ -1248,7 +1248,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1296,7 +1296,7 @@
       <c r="N10" s="6"/>
     </row>
     <row r="11" spans="1:14" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
@@ -1424,10 +1424,10 @@
         <v>4905</v>
       </c>
       <c r="J13" s="6"/>
-      <c r="K13" s="14">
+      <c r="K13" s="9">
         <v>44045</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L13" s="9">
         <v>44165</v>
       </c>
       <c r="M13" s="6"/>
@@ -1435,6 +1435,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A11"/>
@@ -1442,11 +1447,6 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="A2:A3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Programacion de la Ejecucion de Proyectos/Proyectos Plan Priorizados 2020.xlsx
+++ b/Programacion de la Ejecucion de Proyectos/Proyectos Plan Priorizados 2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MEL\Documents\RepositorioORFEI\Gestion-ORFEI\Programacion de la Ejecucion de Proyectos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D07DC5A-EB7E-4801-9DD9-061DD48133D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C64C06-85DB-4467-B3D1-3957F0B00F02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0E58333A-8368-43DE-A68D-4552E7BA821D}"/>
   </bookViews>
@@ -301,12 +301,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -315,6 +309,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -875,7 +875,7 @@
   <dimension ref="A2:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="A2" sqref="A2:N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -894,44 +894,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="12" t="s">
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
       <c r="E3" s="2" t="s">
         <v>32</v>
       </c>
@@ -950,13 +950,13 @@
       <c r="J3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
     </row>
     <row r="4" spans="1:14" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1006,7 +1006,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1054,7 +1054,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1102,7 +1102,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1152,7 +1152,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
@@ -1200,7 +1200,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
@@ -1248,7 +1248,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1296,7 +1296,7 @@
       <c r="N10" s="6"/>
     </row>
     <row r="11" spans="1:14" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
@@ -1435,11 +1435,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A11"/>
@@ -1447,6 +1442,11 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="B2:B3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="A2:A3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
